--- a/inst/extdata/icva.xlsx
+++ b/inst/extdata/icva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Aviso,Comunicado ao Mercado e Fato\Comunicado ao Mercado - ICVA\2021\2 Fevereiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Aviso,Comunicado ao Mercado e Fato\Comunicado ao Mercado - ICVA\2021\3 Março\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+      <selection activeCell="A99" sqref="A99:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,13 +2114,30 @@
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="C99" s="4">
-        <v>-7.1999999999999995E-2</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="D99" s="4">
         <v>-0.17100000000000001</v>
       </c>
       <c r="E99" s="4">
-        <v>-0.121</v>
+        <v>-0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B100" s="4">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C100" s="4">
+        <v>-0.02</v>
+      </c>
+      <c r="D100" s="4">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="E100" s="4">
+        <v>-0.11600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/icva.xlsx
+++ b/inst/extdata/icva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Aviso,Comunicado ao Mercado e Fato\Comunicado ao Mercado - ICVA\2021\3 Março\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Aviso,Comunicado ao Mercado e Fato\Comunicado ao Mercado - ICVA\2021\4 Abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:E100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,6 +2140,23 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.32299999999999995</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/icva.xlsx
+++ b/inst/extdata/icva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Aviso,Comunicado ao Mercado e Fato\Comunicado ao Mercado - ICVA\2021\4 Abril\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Aviso,Comunicado ao Mercado e Fato\Comunicado ao Mercado - ICVA\2021\5 Maio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+      <selection activeCell="A102" sqref="A102:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,6 +2157,23 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.36700000000000005</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0.35600000000000004</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/icva.xlsx
+++ b/inst/extdata/icva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Aviso,Comunicado ao Mercado e Fato\Comunicado ao Mercado - ICVA\2021\5 Maio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Publicações CVM\Aviso,Comunicado ao Mercado e Fato\Comunicado ao Mercado - ICVA\2021\6 Junho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:E102"/>
+      <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,6 +2174,23 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D103" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E103" s="4">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/icva.xlsx
+++ b/inst/extdata/icva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Publicações CVM\Aviso,Comunicado ao Mercado e Fato\Comunicado ao Mercado - ICVA\2021\6 Junho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Publicações CVM\Comunicado ao Mercado - ICVA\2021\7 Julho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:XFD103"/>
+      <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,6 +2191,23 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D104" s="4">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E104" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
